--- a/results/Feature Importance/XGBRegressor_feature_importance.xlsx
+++ b/results/Feature Importance/XGBRegressor_feature_importance.xlsx
@@ -448,161 +448,161 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WTPT-3</t>
+          <t>TopoPSA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3518306016921997</v>
+        <v>0.2437718063592911</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TopoPSA</t>
+          <t>nHBAcc</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1112915426492691</v>
+        <v>0.1338649243116379</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>nHBAcc</t>
+          <t>XLogP</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1023363396525383</v>
+        <v>0.1235350891947746</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MW</t>
+          <t>WTPT-3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07014447450637817</v>
+        <v>0.09355027228593826</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>khs.ssCH2</t>
+          <t>khs.ddsN</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05510752648115158</v>
+        <v>0.08667655289173126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>XLogP</t>
+          <t>WTPT-5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04957692697644234</v>
+        <v>0.06217578798532486</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>WTPT-5</t>
+          <t>khs.sF</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03836192190647125</v>
+        <v>0.04671953618526459</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MDEO-12</t>
+          <t>nHBDon</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03218106180429459</v>
+        <v>0.04651877284049988</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JPLogP</t>
+          <t>C3SP2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03163660690188408</v>
+        <v>0.03525621816515923</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MDEN-33</t>
+          <t>WPATH</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02160500921308994</v>
+        <v>0.02461910992860794</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>khs.aasC</t>
+          <t>JPLogP</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02109339274466038</v>
+        <v>0.01486579515039921</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>nHBDon</t>
+          <t>MDEN-23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02057678066194057</v>
+        <v>0.01147985551506281</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MDEO-11</t>
+          <t>khs.sssN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01025025546550751</v>
+        <v>0.01002746727317572</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>VCH-3</t>
+          <t>khs.dO</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.007763792295008898</v>
+        <v>0.006013988982886076</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>khs.sF</t>
+          <t>khs.sNH2</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.007696137297898531</v>
+        <v>0.005901353433728218</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>WTPT-4</t>
+          <t>WTPT-2</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.005699607077986002</v>
+        <v>0.004910899326205254</v>
       </c>
     </row>
     <row r="18">
@@ -612,37 +612,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.004729940555989742</v>
+        <v>0.004384932573884726</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MDEN-12</t>
+          <t>MDEC-33</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.004313508979976177</v>
+        <v>0.003662904025986791</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MLogP</t>
+          <t>MDEC-12</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.004097145516425371</v>
+        <v>0.003652549115940928</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>VCH-6</t>
+          <t>WTPT-4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.004081667866557837</v>
+        <v>0.003146759932860732</v>
       </c>
     </row>
   </sheetData>
